--- a/server/apps/dcis/tests/resources/period_unload_services/test_unload_heads_and_children.xlsx
+++ b/server/apps/dcis/tests/resources/period_unload_services/test_unload_heads_and_children.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\squak\projects\dcis\server\apps\dcis\tests\resources\period_unload_services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F568FF6-2CA6-4BDC-B8CB-845E2E97B8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E465480-544F-4009-90F5-0E069725FFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="-3696" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{65F74457-28EC-4A65-BBA0-58CA38A4A742}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{65F74457-28EC-4A65-BBA0-58CA38A4A742}"/>
   </bookViews>
   <sheets>
     <sheet name="Головная форма" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
   <si>
     <t>IdListEdu</t>
   </si>
@@ -139,21 +139,9 @@
     <t>2 знака: Головная форма</t>
   </si>
   <si>
-    <t>11.01.2023 00:00</t>
-  </si>
-  <si>
-    <t>12.01.2023 00:00</t>
-  </si>
-  <si>
-    <t>13.01.2023 00:00</t>
-  </si>
-  <si>
     <t>Статус №3</t>
   </si>
   <si>
-    <t>16.01.2023 00:00</t>
-  </si>
-  <si>
     <t>Значение 7</t>
   </si>
   <si>
@@ -175,9 +163,6 @@
     <t>Регион №7</t>
   </si>
   <si>
-    <t>15.01.2023 00:00</t>
-  </si>
-  <si>
     <t>ВУЗ6</t>
   </si>
   <si>
@@ -188,9 +173,6 @@
   </si>
   <si>
     <t>Регион №6</t>
-  </si>
-  <si>
-    <t>14.01.2023 00:00</t>
   </si>
   <si>
     <t>ВУЗ5</t>
@@ -221,6 +203,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -252,7 +237,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -571,13 +556,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BECD3A7-9895-4FDE-AAED-CE6EA902E97A}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -706,8 +691,8 @@
       <c r="P4" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>34</v>
+      <c r="R4" s="1">
+        <v>44937</v>
       </c>
       <c r="S4" t="s">
         <v>30</v>
@@ -756,8 +741,8 @@
       <c r="P5" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>35</v>
+      <c r="R5" s="1">
+        <v>44938</v>
       </c>
       <c r="S5" t="s">
         <v>30</v>
@@ -780,7 +765,7 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
         <v>19</v>
@@ -806,8 +791,8 @@
       <c r="P6" t="s">
         <v>31</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>36</v>
+      <c r="R6" s="1">
+        <v>44939</v>
       </c>
       <c r="S6" t="s">
         <v>30</v>
@@ -829,13 +814,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B19DA1-9594-484E-A3EB-EC45EAB9272B}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -867,7 +852,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -881,15 +866,15 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J2" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -935,19 +920,19 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J4">
         <v>4</v>
@@ -965,13 +950,13 @@
         <v>31</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="P4" t="s">
         <v>32</v>
       </c>
-      <c r="R4" t="s">
-        <v>51</v>
+      <c r="R4" s="1">
+        <v>44940</v>
       </c>
       <c r="S4" t="s">
         <v>30</v>
@@ -991,19 +976,19 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -1021,13 +1006,13 @@
         <v>32</v>
       </c>
       <c r="O5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P5" t="s">
-        <v>41</v>
-      </c>
-      <c r="R5" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="R5" s="1">
+        <v>44941</v>
       </c>
       <c r="S5" t="s">
         <v>30</v>
@@ -1047,19 +1032,19 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J6">
         <v>6</v>
@@ -1074,16 +1059,16 @@
         <v>7.5</v>
       </c>
       <c r="N6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P6" t="s">
-        <v>39</v>
-      </c>
-      <c r="R6" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="R6" s="1">
+        <v>44942</v>
       </c>
       <c r="S6" t="s">
         <v>30</v>

--- a/server/apps/dcis/tests/resources/period_unload_services/test_unload_heads_and_children.xlsx
+++ b/server/apps/dcis/tests/resources/period_unload_services/test_unload_heads_and_children.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\squak\projects\dcis\server\apps\dcis\tests\resources\period_unload_services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E465480-544F-4009-90F5-0E069725FFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8535B335-50CD-425B-9A37-1078A3CE841E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{65F74457-28EC-4A65-BBA0-58CA38A4A742}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{65F74457-28EC-4A65-BBA0-58CA38A4A742}"/>
   </bookViews>
   <sheets>
     <sheet name="Головная форма" sheetId="1" r:id="rId1"/>
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BECD3A7-9895-4FDE-AAED-CE6EA902E97A}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,31 +566,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -599,14 +599,29 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="R1" t="s">
+      <c r="N1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
         <v>23</v>
       </c>
@@ -615,14 +630,23 @@
         <v>33</v>
       </c>
       <c r="M2" s="2"/>
-      <c r="N2" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
       <c r="J3" t="s">
         <v>25</v>
       </c>
@@ -647,6 +671,8 @@
       <c r="Q3" t="s">
         <v>26</v>
       </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -799,11 +825,22 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="15">
+    <mergeCell ref="N1:Q2"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="S1:S3"/>
     <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -814,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B19DA1-9594-484E-A3EB-EC45EAB9272B}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,31 +861,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -857,14 +894,29 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-      <c r="R1" t="s">
+      <c r="N1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
       <c r="J2" s="3" t="s">
         <v>52</v>
       </c>
@@ -873,14 +925,23 @@
         <v>51</v>
       </c>
       <c r="M2" s="3"/>
-      <c r="N2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
       <c r="J3" t="s">
         <v>25</v>
       </c>
@@ -905,6 +966,8 @@
       <c r="Q3" t="s">
         <v>26</v>
       </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1075,11 +1138,22 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="15">
+    <mergeCell ref="N1:Q2"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="S1:S3"/>
     <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/server/apps/dcis/tests/resources/period_unload_services/test_unload_heads_and_children.xlsx
+++ b/server/apps/dcis/tests/resources/period_unload_services/test_unload_heads_and_children.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\squak\projects\dcis\server\apps\dcis\tests\resources\period_unload_services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8535B335-50CD-425B-9A37-1078A3CE841E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D93BFA-CB82-473D-A897-F70721F60BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{65F74457-28EC-4A65-BBA0-58CA38A4A742}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{65F74457-28EC-4A65-BBA0-58CA38A4A742}"/>
   </bookViews>
   <sheets>
     <sheet name="Головная форма" sheetId="1" r:id="rId1"/>
@@ -238,8 +238,12 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -556,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BECD3A7-9895-4FDE-AAED-CE6EA902E97A}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,113 +570,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2" t="s">
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -832,15 +836,15 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -851,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B19DA1-9594-484E-A3EB-EC45EAB9272B}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,31 +865,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -894,29 +898,29 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2" t="s">
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
         <v>52</v>
       </c>
@@ -925,49 +929,49 @@
         <v>51</v>
       </c>
       <c r="M2" s="3"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1145,15 +1149,15 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
